--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H2">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105217781177898</v>
+        <v>0.1341725</v>
       </c>
       <c r="N2">
-        <v>0.105217781177898</v>
+        <v>0.268345</v>
       </c>
       <c r="O2">
-        <v>0.01393559333010025</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P2">
-        <v>0.01393559333010025</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q2">
-        <v>0.04846297601677975</v>
+        <v>0.07708719980499999</v>
       </c>
       <c r="R2">
-        <v>0.04846297601677975</v>
+        <v>0.46252319883</v>
       </c>
       <c r="S2">
-        <v>0.01393559333010025</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="T2">
-        <v>0.01393559333010025</v>
+        <v>0.01188426112752495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H3">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.46368627355349</v>
+        <v>5.923689</v>
       </c>
       <c r="N3">
-        <v>5.46368627355349</v>
+        <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7236391904402391</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P3">
-        <v>0.7236391904402391</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q3">
-        <v>2.516556554169691</v>
+        <v>3.403384430682</v>
       </c>
       <c r="R3">
-        <v>2.516556554169691</v>
+        <v>30.630459876138</v>
       </c>
       <c r="S3">
-        <v>0.7236391904402391</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="T3">
-        <v>0.7236391904402391</v>
+        <v>0.787031622511101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H4">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.149987742647476</v>
+        <v>0.007277666666666668</v>
       </c>
       <c r="N4">
-        <v>0.149987742647476</v>
+        <v>0.021833</v>
       </c>
       <c r="O4">
-        <v>0.01986516121738955</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="P4">
-        <v>0.01986516121738955</v>
+        <v>0.0009669234500260939</v>
       </c>
       <c r="Q4">
-        <v>0.06908387815597136</v>
+        <v>0.004181296051333334</v>
       </c>
       <c r="R4">
-        <v>0.06908387815597136</v>
+        <v>0.037631664462</v>
       </c>
       <c r="S4">
-        <v>0.01986516121738955</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="T4">
-        <v>0.01986516121738955</v>
+        <v>0.0009669234500260939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H5">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,31 +744,155 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.83139893553398</v>
+        <v>0.039371</v>
       </c>
       <c r="N5">
-        <v>1.83139893553398</v>
+        <v>0.118113</v>
       </c>
       <c r="O5">
-        <v>0.242560055012271</v>
+        <v>0.004793310038624915</v>
       </c>
       <c r="P5">
-        <v>0.242560055012271</v>
+        <v>0.005230899530661476</v>
       </c>
       <c r="Q5">
-        <v>0.843536536280648</v>
+        <v>0.022620135598</v>
       </c>
       <c r="R5">
-        <v>0.843536536280648</v>
+        <v>0.203581220382</v>
       </c>
       <c r="S5">
-        <v>0.242560055012271</v>
+        <v>0.004793310038624915</v>
       </c>
       <c r="T5">
-        <v>0.242560055012271</v>
+        <v>0.005230899530661476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.574538</v>
+      </c>
+      <c r="H6">
+        <v>1.723614</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P6">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q6">
+        <v>0.1045931107986666</v>
+      </c>
+      <c r="R6">
+        <v>0.9413379971879998</v>
+      </c>
+      <c r="S6">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="T6">
+        <v>0.02418712530775207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.574538</v>
+      </c>
+      <c r="H7">
+        <v>1.723614</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.927182</v>
+      </c>
+      <c r="N7">
+        <v>3.854364</v>
+      </c>
+      <c r="O7">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P7">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q7">
+        <v>1.107239291916</v>
+      </c>
+      <c r="R7">
+        <v>6.643435751496</v>
+      </c>
+      <c r="S7">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="T7">
+        <v>0.1706991680729343</v>
       </c>
     </row>
   </sheetData>
